--- a/dados_teste_classificado.xlsx
+++ b/dados_teste_classificado.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaov\OneDrive\Documentos\Insper\2° semestre\CDados\Projeto 1 CDados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaov\OneDrive\Documentos\Insper\2° semestre\CDados\Classificador_de_textos_automatico_P1_correto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB14DA1-6101-4C22-9A8E-5861C4D906CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBFA0911-3238-437D-BDF2-D8685F5B7CD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3504" yWindow="696" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="202">
   <si>
     <t>Mensagem</t>
   </si>
@@ -614,9 +614,6 @@
   </si>
   <si>
     <t>Target</t>
-  </si>
-  <si>
-    <t>ED-</t>
   </si>
   <si>
     <t>OUTROS</t>
@@ -1022,8 +1019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A195" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1045,7 +1042,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="259.2" x14ac:dyDescent="0.3">
@@ -1053,7 +1050,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="72" x14ac:dyDescent="0.3">
@@ -1061,7 +1058,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -1069,7 +1066,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -1077,7 +1074,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
@@ -1085,7 +1082,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="72" x14ac:dyDescent="0.3">
@@ -1093,7 +1090,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -1101,7 +1098,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -1109,7 +1106,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -1117,7 +1114,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="23.4" x14ac:dyDescent="0.3">
@@ -1125,7 +1122,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -1133,7 +1130,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -1141,7 +1138,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -1149,7 +1146,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="23.4" x14ac:dyDescent="0.3">
@@ -1157,7 +1154,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="72" x14ac:dyDescent="0.3">
@@ -1165,7 +1162,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -1173,7 +1170,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
@@ -1181,7 +1178,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -1189,7 +1186,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="23.4" x14ac:dyDescent="0.3">
@@ -1197,7 +1194,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="23.4" x14ac:dyDescent="0.3">
@@ -1205,7 +1202,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -1213,7 +1210,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="72" x14ac:dyDescent="0.3">
@@ -1221,7 +1218,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -1229,7 +1226,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -1237,7 +1234,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -1245,7 +1242,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="345.6" x14ac:dyDescent="0.3">
@@ -1253,7 +1250,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -1261,7 +1258,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -1275,7 +1272,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -1283,7 +1280,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -1291,7 +1288,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -1299,7 +1296,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -1307,7 +1304,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -1315,7 +1312,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -1323,7 +1320,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -1331,7 +1328,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="288" x14ac:dyDescent="0.3">
@@ -1339,7 +1336,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="72" x14ac:dyDescent="0.3">
@@ -1347,7 +1344,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -1355,7 +1352,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -1363,7 +1360,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -1371,7 +1368,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
@@ -1379,7 +1376,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="244.8" x14ac:dyDescent="0.3">
@@ -1387,7 +1384,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="23.4" x14ac:dyDescent="0.3">
@@ -1395,7 +1392,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="23.4" x14ac:dyDescent="0.3">
@@ -1403,7 +1400,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -1411,7 +1408,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="72" x14ac:dyDescent="0.3">
@@ -1419,7 +1416,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -1427,7 +1424,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -1435,7 +1432,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -1443,7 +1440,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -1451,7 +1448,7 @@
         <v>33</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="23.4" x14ac:dyDescent="0.3">
@@ -1459,7 +1456,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -1467,7 +1464,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
@@ -1475,7 +1472,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -1483,7 +1480,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
@@ -1491,7 +1488,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -1499,7 +1496,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="72" x14ac:dyDescent="0.3">
@@ -1507,7 +1504,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -1515,7 +1512,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -1523,7 +1520,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="72" x14ac:dyDescent="0.3">
@@ -1531,7 +1528,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -1539,7 +1536,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
@@ -1547,7 +1544,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -1555,7 +1552,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -1563,7 +1560,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
@@ -1571,7 +1568,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -1579,7 +1576,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -1587,7 +1584,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -1595,7 +1592,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -1603,7 +1600,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
@@ -1611,7 +1608,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="23.4" x14ac:dyDescent="0.3">
@@ -1619,7 +1616,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="72" x14ac:dyDescent="0.3">
@@ -1627,7 +1624,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -1635,7 +1632,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -1643,7 +1640,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -1651,7 +1648,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="23.4" x14ac:dyDescent="0.3">
@@ -1659,7 +1656,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -1667,7 +1664,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -1675,7 +1672,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -1683,7 +1680,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
@@ -1691,7 +1688,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -1699,7 +1696,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="23.4" x14ac:dyDescent="0.3">
@@ -1707,7 +1704,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="72" x14ac:dyDescent="0.3">
@@ -1715,7 +1712,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -1723,7 +1720,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="72" x14ac:dyDescent="0.3">
@@ -1731,7 +1728,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="23.4" x14ac:dyDescent="0.3">
@@ -1739,7 +1736,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -1747,7 +1744,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -1755,7 +1752,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
@@ -1763,7 +1760,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -1771,7 +1768,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -1779,7 +1776,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -1787,7 +1784,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="144" x14ac:dyDescent="0.3">
@@ -1795,7 +1792,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -1803,7 +1800,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
@@ -1811,7 +1808,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="72" x14ac:dyDescent="0.3">
@@ -1819,7 +1816,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="23.4" x14ac:dyDescent="0.3">
@@ -1827,7 +1824,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -1835,7 +1832,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -1843,7 +1840,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="72" x14ac:dyDescent="0.3">
@@ -1851,7 +1848,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -1859,7 +1856,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -1867,7 +1864,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="23.4" x14ac:dyDescent="0.3">
@@ -1875,7 +1872,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -1883,7 +1880,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
@@ -1891,7 +1888,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -1899,7 +1896,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="259.2" x14ac:dyDescent="0.3">
@@ -1907,7 +1904,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -1915,7 +1912,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -1923,7 +1920,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="23.4" x14ac:dyDescent="0.3">
@@ -1931,7 +1928,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -1939,7 +1936,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="23.4" x14ac:dyDescent="0.3">
@@ -1947,7 +1944,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="23.4" x14ac:dyDescent="0.3">
@@ -1955,7 +1952,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -1963,7 +1960,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -1971,7 +1968,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -1979,7 +1976,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -1987,7 +1984,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -1995,7 +1992,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -2003,7 +2000,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -2011,7 +2008,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -2019,7 +2016,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -2027,7 +2024,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -2035,7 +2032,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -2043,7 +2040,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -2051,7 +2048,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="273.60000000000002" x14ac:dyDescent="0.3">
@@ -2059,7 +2056,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="23.4" x14ac:dyDescent="0.3">
@@ -2067,7 +2064,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="360" x14ac:dyDescent="0.3">
@@ -2075,7 +2072,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
@@ -2083,7 +2080,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -2091,7 +2088,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -2099,7 +2096,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="23.4" x14ac:dyDescent="0.3">
@@ -2107,7 +2104,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -2115,7 +2112,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="244.8" x14ac:dyDescent="0.3">
@@ -2123,7 +2120,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -2131,7 +2128,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
@@ -2139,7 +2136,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
@@ -2147,7 +2144,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="23.4" x14ac:dyDescent="0.3">
@@ -2155,7 +2152,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -2163,7 +2160,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
@@ -2171,7 +2168,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -2179,7 +2176,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -2187,7 +2184,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -2195,7 +2192,7 @@
         <v>144</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
@@ -2203,7 +2200,7 @@
         <v>145</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -2211,7 +2208,7 @@
         <v>146</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="72" x14ac:dyDescent="0.3">
@@ -2219,7 +2216,7 @@
         <v>147</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="23.4" x14ac:dyDescent="0.3">
@@ -2227,7 +2224,7 @@
         <v>87</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -2235,7 +2232,7 @@
         <v>148</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -2243,7 +2240,7 @@
         <v>149</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="144" x14ac:dyDescent="0.3">
@@ -2251,7 +2248,7 @@
         <v>94</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -2259,7 +2256,7 @@
         <v>150</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -2267,7 +2264,7 @@
         <v>151</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="72" x14ac:dyDescent="0.3">
@@ -2275,7 +2272,7 @@
         <v>152</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -2283,7 +2280,7 @@
         <v>153</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -2291,7 +2288,7 @@
         <v>154</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -2299,7 +2296,7 @@
         <v>155</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -2307,7 +2304,7 @@
         <v>156</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -2315,7 +2312,7 @@
         <v>157</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="72" x14ac:dyDescent="0.3">
@@ -2323,7 +2320,7 @@
         <v>158</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -2331,7 +2328,7 @@
         <v>159</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -2339,7 +2336,7 @@
         <v>160</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -2347,7 +2344,7 @@
         <v>161</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -2355,7 +2352,7 @@
         <v>162</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="144" x14ac:dyDescent="0.3">
@@ -2363,7 +2360,7 @@
         <v>163</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -2371,7 +2368,7 @@
         <v>164</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -2379,7 +2376,7 @@
         <v>165</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="23.4" x14ac:dyDescent="0.3">
@@ -2387,7 +2384,7 @@
         <v>166</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -2395,7 +2392,7 @@
         <v>167</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -2403,7 +2400,7 @@
         <v>168</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -2411,7 +2408,7 @@
         <v>169</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -2419,7 +2416,7 @@
         <v>170</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -2427,7 +2424,7 @@
         <v>154</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -2435,7 +2432,7 @@
         <v>171</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
@@ -2443,7 +2440,7 @@
         <v>172</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
@@ -2451,7 +2448,7 @@
         <v>173</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
@@ -2459,7 +2456,7 @@
         <v>174</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -2467,7 +2464,7 @@
         <v>175</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -2475,7 +2472,7 @@
         <v>176</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -2483,7 +2480,7 @@
         <v>177</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -2491,7 +2488,7 @@
         <v>178</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -2499,7 +2496,7 @@
         <v>179</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="72" x14ac:dyDescent="0.3">
@@ -2507,7 +2504,7 @@
         <v>180</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -2515,7 +2512,7 @@
         <v>181</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
@@ -2523,7 +2520,7 @@
         <v>182</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="188" spans="1:2" ht="23.4" x14ac:dyDescent="0.3">
@@ -2531,7 +2528,7 @@
         <v>183</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="189" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
@@ -2539,7 +2536,7 @@
         <v>184</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="190" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -2547,7 +2544,7 @@
         <v>185</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -2555,7 +2552,7 @@
         <v>186</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -2563,7 +2560,7 @@
         <v>187</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
@@ -2571,7 +2568,7 @@
         <v>188</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="194" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
@@ -2579,7 +2576,7 @@
         <v>189</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="195" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -2587,7 +2584,7 @@
         <v>190</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="196" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -2595,7 +2592,7 @@
         <v>191</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="197" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -2603,7 +2600,7 @@
         <v>192</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="198" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -2611,7 +2608,7 @@
         <v>193</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="199" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -2619,7 +2616,7 @@
         <v>194</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="200" spans="1:2" ht="72" x14ac:dyDescent="0.3">
@@ -2627,7 +2624,7 @@
         <v>195</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="201" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -2635,7 +2632,7 @@
         <v>196</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -2645,6 +2642,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BBA3F78CEF1CA541A1B93B4F9B0D4715" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ef5b114ace0c14572ed15b77202c6c94">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="bd61af73-7999-4cce-802c-efc978926a1d" xmlns:ns4="ee918b65-cae3-47bc-8c3b-c1f3bd6f0a29" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1ac2a00e00568db96b6e28c6ec378691" ns3:_="" ns4:_="">
     <xsd:import namespace="bd61af73-7999-4cce-802c-efc978926a1d"/>
@@ -2827,15 +2833,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2845,6 +2842,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A720534F-4C6E-4FCE-9DCC-9C18C9CB93B4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B07E6EB6-A11E-47C4-86C6-DCAA17F7C5CB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2859,14 +2864,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A720534F-4C6E-4FCE-9DCC-9C18C9CB93B4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
